--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\RCL\AS5600\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{310D8D42-AE8A-41F8-883C-564CF148B306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A329AF89-C861-4722-A66D-BB0F0BD9F2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{419200DD-6B79-4C66-B1E9-5F7B93DBC72D}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{50F9CC07-A593-43FB-A3AB-AC6AFC1D8507}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Designator</t>
   </si>
@@ -148,6 +148,33 @@
   </si>
   <si>
     <t>SM04B-GHS-TB(LF)(SN)-</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>Yageo or NXP</t>
+  </si>
+  <si>
+    <t>RC0603FR-074K7L</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>4.7 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Thick Film</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-RC_Group_51_RoHS_L_10.pdf</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product0/9000079736</t>
   </si>
   <si>
     <t>U1</t>
@@ -539,8 +566,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC652E7F-C186-4182-8115-EB9C2A56EC4C}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF635225-EF95-4538-935A-F99B44646530}">
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -707,7 +734,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
@@ -715,23 +742,61 @@
       <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="L5" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>